--- a/cat_list.xlsx
+++ b/cat_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Aegean_cat</t>
   </si>
@@ -24,226 +24,256 @@
     <t>Asian_cats</t>
   </si>
   <si>
+    <t>bombay_cat</t>
+  </si>
+  <si>
+    <t>Bramble_cat</t>
+  </si>
+  <si>
+    <t>Brazilian_Shorthair</t>
+  </si>
+  <si>
+    <t>British_Longhair</t>
+  </si>
+  <si>
+    <t>BritishShortHair</t>
+  </si>
+  <si>
+    <t>Burmese</t>
+  </si>
+  <si>
+    <t>Chartreux</t>
+  </si>
+  <si>
+    <t>Cornish_Rex</t>
+  </si>
+  <si>
+    <t>Cymric</t>
+  </si>
+  <si>
+    <t>Devon_Rex</t>
+  </si>
+  <si>
+    <t>Egyptian_Mau</t>
+  </si>
+  <si>
+    <t>Exotic_Shorthair</t>
+  </si>
+  <si>
+    <t>HavanaBrown_cat</t>
+  </si>
+  <si>
+    <t>Himalayan_cat</t>
+  </si>
+  <si>
+    <t>Japanese_Bobtail</t>
+  </si>
+  <si>
+    <t>Korat</t>
+  </si>
+  <si>
+    <t>LaPerm</t>
+  </si>
+  <si>
+    <t>Mainecoon</t>
+  </si>
+  <si>
+    <t>Manx_cat</t>
+  </si>
+  <si>
+    <t>munchkin_cat</t>
+  </si>
+  <si>
+    <t>Norwegian_Forest_Cat</t>
+  </si>
+  <si>
+    <t>Ocicat</t>
+  </si>
+  <si>
+    <t>Oriental_cat</t>
+  </si>
+  <si>
+    <t>Persian_cat</t>
+  </si>
+  <si>
+    <t>PixieBob</t>
+  </si>
+  <si>
+    <t>Ragamuffin_cat</t>
+  </si>
+  <si>
+    <t>Ragdoll</t>
+  </si>
+  <si>
+    <t>RussianBlue</t>
+  </si>
+  <si>
+    <t>Scottish_Fold</t>
+  </si>
+  <si>
+    <t>Selkirk_Rex</t>
+  </si>
+  <si>
+    <t>Siamese</t>
+  </si>
+  <si>
+    <t>Siberian_cat</t>
+  </si>
+  <si>
+    <t>Singapura_cat</t>
+  </si>
+  <si>
+    <t>Snowshoe_cat</t>
+  </si>
+  <si>
+    <t>Somali_cat</t>
+  </si>
+  <si>
+    <t>Sphynx_cat</t>
+  </si>
+  <si>
+    <t>Tonkinese</t>
+  </si>
+  <si>
+    <t>Turkish_Angora</t>
+  </si>
+  <si>
+    <t>Turkish_Van</t>
+  </si>
+  <si>
+    <t>エーゲ・キャット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abyssinian</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アビシニアン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpine_lynx_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルパインリンクス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>american_bobtail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンボブテイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジアン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>american_curl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンカール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>American_Keuda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンキューダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>American_Polydactyl_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンポリダクティル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>American_Ringtail_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンリングテイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>american_short_hair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンショートヘア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>american_wirehair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンワイヤーヘア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arabian_Mau</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラビアンマウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>Australian_mist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーストラリアンミスト</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Bahraini_Dilmun_Cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーレイニディルムンキャット</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Balinese_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリニーズ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Bambino_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンビーノ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Bengal_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベンガル</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Birman</t>
-  </si>
-  <si>
-    <t>bombay_cat</t>
-  </si>
-  <si>
-    <t>Bramble_cat</t>
-  </si>
-  <si>
-    <t>Brazilian_Shorthair</t>
-  </si>
-  <si>
-    <t>British_Longhair</t>
-  </si>
-  <si>
-    <t>BritishShortHair</t>
-  </si>
-  <si>
-    <t>Burmese</t>
-  </si>
-  <si>
-    <t>Chartreux</t>
-  </si>
-  <si>
-    <t>Cornish_Rex</t>
-  </si>
-  <si>
-    <t>Cymric</t>
-  </si>
-  <si>
-    <t>Devon_Rex</t>
-  </si>
-  <si>
-    <t>Egyptian_Mau</t>
-  </si>
-  <si>
-    <t>Exotic_Shorthair</t>
-  </si>
-  <si>
-    <t>HavanaBrown_cat</t>
-  </si>
-  <si>
-    <t>Himalayan_cat</t>
-  </si>
-  <si>
-    <t>Japanese_Bobtail</t>
-  </si>
-  <si>
-    <t>Korat</t>
-  </si>
-  <si>
-    <t>LaPerm</t>
-  </si>
-  <si>
-    <t>Mainecoon</t>
-  </si>
-  <si>
-    <t>Manx_cat</t>
-  </si>
-  <si>
-    <t>munchkin_cat</t>
-  </si>
-  <si>
-    <t>Norwegian_Forest_Cat</t>
-  </si>
-  <si>
-    <t>Ocicat</t>
-  </si>
-  <si>
-    <t>Oriental_cat</t>
-  </si>
-  <si>
-    <t>Persian_cat</t>
-  </si>
-  <si>
-    <t>PixieBob</t>
-  </si>
-  <si>
-    <t>Ragamuffin_cat</t>
-  </si>
-  <si>
-    <t>Ragdoll</t>
-  </si>
-  <si>
-    <t>RussianBlue</t>
-  </si>
-  <si>
-    <t>Scottish_Fold</t>
-  </si>
-  <si>
-    <t>Selkirk_Rex</t>
-  </si>
-  <si>
-    <t>Siamese</t>
-  </si>
-  <si>
-    <t>Siberian_cat</t>
-  </si>
-  <si>
-    <t>Singapura_cat</t>
-  </si>
-  <si>
-    <t>Snowshoe_cat</t>
-  </si>
-  <si>
-    <t>Somali_cat</t>
-  </si>
-  <si>
-    <t>Sphynx_cat</t>
-  </si>
-  <si>
-    <t>Tonkinese</t>
-  </si>
-  <si>
-    <t>Turkish_Angora</t>
-  </si>
-  <si>
-    <t>Turkish_Van</t>
-  </si>
-  <si>
-    <t>エーゲ・キャット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abyssinian</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アビシニアン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>alpine_lynx_cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルパインリンクス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>american_bobtail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンボブテイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アジアン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>american_curl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンカール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>American_Keuda</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンキューダ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>American_Polydactyl_cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンポリダクティル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>American_Ringtail_cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンリングテイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>american_short_hair</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンショートヘア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>american_wirehair</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンワイヤーヘア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Arabian_Mau</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アラビアンマウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーマン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -590,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -602,10 +632,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -613,79 +643,79 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -693,232 +723,250 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>63</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>65</v>
+      </c>
+      <c r="B14" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/cat_list.xlsx
+++ b/cat_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>Aegean_cat</t>
   </si>
@@ -24,256 +24,451 @@
     <t>Asian_cats</t>
   </si>
   <si>
+    <t>エーゲ・キャット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abyssinian</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アビシニアン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>alpine_lynx_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アルパインリンクス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>american_bobtail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンボブテイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジアン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>american_curl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンカール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>American_Keuda</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンキューダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>American_Polydactyl_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンポリダクティル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>American_Ringtail_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンリングテイル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>american_short_hair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンショートヘア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>american_wirehair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アメリカンワイヤーヘア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Arabian_Mau</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アラビアンマウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Australian_mist</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オーストラリアンミスト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bahraini_Dilmun_Cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーレイニディルムンキャット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Balinese_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリニーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bambino_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バンビーノ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Bengal_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベンガル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Birman</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>bombay_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボンベイ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Bramble_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブランブル</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Brazilian_Shorthair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブラジリアンショートヘア</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>British_Longhair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブリティッシュロングヘア</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>BritishShortHair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブリティッシュショートヘア</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Burmese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バーミーズ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Chartreux</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャルトリュー</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Cornish_Rex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コーニッシュレックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Turkish_Van</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターキッシュバン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Turkish_Angora</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ターキッシュアンゴラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Korat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コラット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LaPerm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラパーマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mainecoon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メインクーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tonkinese</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トンキニーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sphynx_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スフィンクス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Somali_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ソマリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Snowshoe_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スノーシュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Singapura_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シンガプーラ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Cymric</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キムリック</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Devon_Rex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デボンレックス</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Egyptian_Mau</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エジプシャンマウ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Exotic_Shorthair</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エキゾチックショートヘア</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>HavanaBrown_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハバナ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Himalayan_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒマラヤン</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Japanese_Bobtail</t>
-  </si>
-  <si>
-    <t>Korat</t>
-  </si>
-  <si>
-    <t>LaPerm</t>
-  </si>
-  <si>
-    <t>Mainecoon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャパニーズボブテイル</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Manx_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンクス</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>munchkin_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マンチカン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Siberian_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サイベリアン</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Norwegian_Forest_Cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノルウェージャンフォレストキャット</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Ocicat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オシキャット</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Oriental_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリエンタルショートヘア</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Persian_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ペルシャ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>PixieBob</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピクシーボブ</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Ragamuffin_cat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラガマフィン</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Ragdoll</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラグドール</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>RussianBlue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロシアンブルー</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Scottish_Fold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコティッシュフォールド</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Selkirk_Rex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セルカークレックス</t>
+    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Siamese</t>
-  </si>
-  <si>
-    <t>Siberian_cat</t>
-  </si>
-  <si>
-    <t>Singapura_cat</t>
-  </si>
-  <si>
-    <t>Snowshoe_cat</t>
-  </si>
-  <si>
-    <t>Somali_cat</t>
-  </si>
-  <si>
-    <t>Sphynx_cat</t>
-  </si>
-  <si>
-    <t>Tonkinese</t>
-  </si>
-  <si>
-    <t>Turkish_Angora</t>
-  </si>
-  <si>
-    <t>Turkish_Van</t>
-  </si>
-  <si>
-    <t>エーゲ・キャット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>abyssinian</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アビシニアン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>alpine_lynx_cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルパインリンクス</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>american_bobtail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンボブテイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アジアン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>american_curl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンカール</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>American_Keuda</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンキューダ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>American_Polydactyl_cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンポリダクティル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>American_Ringtail_cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンリングテイル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>american_short_hair</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンショートヘア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>american_wirehair</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アメリカンワイヤーヘア</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Arabian_Mau</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アラビアンマウ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Australian_mist</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オーストラリアンミスト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bahraini_Dilmun_Cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バーレイニディルムンキャット</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Balinese_cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バリニーズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bambino_cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バンビーノ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bengal_cat</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ベンガル</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Birman</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バーマン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャム</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -620,22 +815,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -643,79 +838,79 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -723,250 +918,367 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>5</v>
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>8</v>
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>10</v>
+        <v>72</v>
+      </c>
+      <c r="B27" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>76</v>
+      </c>
+      <c r="B29" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>80</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>96</v>
+      </c>
+      <c r="B41" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>100</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>102</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>108</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>110</v>
+      </c>
+      <c r="B48" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="B49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="B50" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>52</v>
+      </c>
+      <c r="B57" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/cat_list.xlsx
+++ b/cat_list.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>Aegean_cat</t>
   </si>
@@ -469,6 +469,18 @@
   </si>
   <si>
     <t>シャム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -813,471 +825,653 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C17" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C18" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C22" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C24" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C25" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C26" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C27" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
         <v>72</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C28" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
         <v>74</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C29" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
         <v>76</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
         <v>78</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
         <v>80</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C32" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C33" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
         <v>84</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
         <v>56</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C35" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
         <v>58</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C36" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
         <v>60</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C37" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
         <v>86</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
         <v>88</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
         <v>92</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C40" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
         <v>94</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
         <v>96</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C42" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
         <v>98</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C43" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
         <v>100</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C44" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
         <v>102</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C45" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
         <v>104</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C46" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
         <v>106</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C47" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
         <v>108</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C48" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
         <v>110</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C49" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
         <v>112</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C50" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
         <v>90</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C51" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>70</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C52" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
         <v>68</v>
       </c>
-      <c r="B52" t="s">
+      <c r="C53" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
         <v>66</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C54" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C55" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
         <v>62</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
         <v>54</v>
       </c>
-      <c r="B56" t="s">
+      <c r="C57" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
         <v>52</v>
       </c>
-      <c r="B57" t="s">
+      <c r="C58" t="s">
         <v>53</v>
       </c>
     </row>
